--- a/devices.xlsx
+++ b/devices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srho/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srho/jcloud-adopt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A917A3-6C74-BE45-A273-1DADC063A101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19573A6B-5C74-F641-92D0-260712598034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1660" yWindow="-21020" windowWidth="29920" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Local Inventory" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="45">
   <si>
     <t>organization</t>
   </si>
@@ -61,7 +61,100 @@
     <t>Site-04</t>
   </si>
   <si>
-    <t>10.6.3.55</t>
+    <t>192.168.1.101</t>
+  </si>
+  <si>
+    <t>192.168.1.102</t>
+  </si>
+  <si>
+    <t>192.168.1.103</t>
+  </si>
+  <si>
+    <t>192.168.1.104</t>
+  </si>
+  <si>
+    <t>192.168.1.105</t>
+  </si>
+  <si>
+    <t>192.168.1.106</t>
+  </si>
+  <si>
+    <t>192.168.1.107</t>
+  </si>
+  <si>
+    <t>192.168.1.108</t>
+  </si>
+  <si>
+    <t>192.168.1.109</t>
+  </si>
+  <si>
+    <t>192.168.1.110</t>
+  </si>
+  <si>
+    <t>192.168.1.111</t>
+  </si>
+  <si>
+    <t>192.168.1.112</t>
+  </si>
+  <si>
+    <t>192.168.1.113</t>
+  </si>
+  <si>
+    <t>192.168.1.114</t>
+  </si>
+  <si>
+    <t>192.168.1.115</t>
+  </si>
+  <si>
+    <t>192.168.1.116</t>
+  </si>
+  <si>
+    <t>192.168.1.117</t>
+  </si>
+  <si>
+    <t>192.168.1.118</t>
+  </si>
+  <si>
+    <t>192.168.1.119</t>
+  </si>
+  <si>
+    <t>192.168.1.120</t>
+  </si>
+  <si>
+    <t>192.168.1.121</t>
+  </si>
+  <si>
+    <t>192.168.1.122</t>
+  </si>
+  <si>
+    <t>192.168.1.123</t>
+  </si>
+  <si>
+    <t>192.168.1.124</t>
+  </si>
+  <si>
+    <t>192.168.1.125</t>
+  </si>
+  <si>
+    <t>192.168.1.126</t>
+  </si>
+  <si>
+    <t>192.168.1.127</t>
+  </si>
+  <si>
+    <t>192.168.1.128</t>
+  </si>
+  <si>
+    <t>192.168.1.129</t>
+  </si>
+  <si>
+    <t>192.168.1.130</t>
+  </si>
+  <si>
+    <t>192.168.1.131</t>
+  </si>
+  <si>
+    <t>192.168.1.132</t>
   </si>
 </sst>
 </file>
@@ -447,14 +540,14 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
     <col min="2" max="2" width="7.83203125" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.83203125" customWidth="1"/>
     <col min="5" max="6" width="8.83203125" customWidth="1"/>
   </cols>
@@ -490,7 +583,7 @@
         <v>13</v>
       </c>
       <c r="D2">
-        <v>5901</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -507,10 +600,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>5902</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -527,10 +620,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>5903</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -547,10 +640,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>5904</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -567,10 +660,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>5905</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -587,10 +680,10 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>5906</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -607,10 +700,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>5907</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -627,10 +720,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>5908</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -647,10 +740,10 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>5909</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -667,10 +760,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>5910</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -687,10 +780,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>5911</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -707,10 +800,10 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>5912</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -727,10 +820,10 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>5913</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -747,10 +840,10 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D15">
-        <v>5914</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -767,10 +860,10 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D16">
-        <v>5915</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -787,10 +880,10 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>5916</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -807,10 +900,10 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D18">
-        <v>5917</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -827,10 +920,10 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>5918</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -847,10 +940,10 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D20">
-        <v>5919</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -867,10 +960,10 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D21">
-        <v>5920</v>
+        <v>22</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
@@ -887,10 +980,10 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D22">
-        <v>5921</v>
+        <v>22</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
@@ -907,10 +1000,10 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D23">
-        <v>5922</v>
+        <v>22</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
@@ -927,10 +1020,10 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D24">
-        <v>5923</v>
+        <v>22</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
@@ -947,10 +1040,10 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D25">
-        <v>5924</v>
+        <v>22</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
@@ -967,10 +1060,10 @@
         <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D26">
-        <v>5925</v>
+        <v>22</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
@@ -987,10 +1080,10 @@
         <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D27">
-        <v>5926</v>
+        <v>22</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
@@ -1007,10 +1100,10 @@
         <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D28">
-        <v>5927</v>
+        <v>22</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
@@ -1027,10 +1120,10 @@
         <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D29">
-        <v>5928</v>
+        <v>22</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
@@ -1047,10 +1140,10 @@
         <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D30">
-        <v>5929</v>
+        <v>22</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
@@ -1067,10 +1160,10 @@
         <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D31">
-        <v>5930</v>
+        <v>22</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
@@ -1087,10 +1180,10 @@
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D32">
-        <v>5931</v>
+        <v>22</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
@@ -1107,10 +1200,10 @@
         <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D33">
-        <v>5932</v>
+        <v>22</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>
@@ -1126,7 +1219,7 @@
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;7&amp;K000000 Juniper Business Use Only</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="A1:F1 A3:B33 A2:B2 D2:F2 D3:F33" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:F1 A3:B33 A2:B2 E2:F2 E3:F33" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>